--- a/biology/Botanique/Olea_europaea_subsp._europaea_var._sylvestris/Olea_europaea_subsp._europaea_var._sylvestris.xlsx
+++ b/biology/Botanique/Olea_europaea_subsp._europaea_var._sylvestris/Olea_europaea_subsp._europaea_var._sylvestris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oléastre
 Olea europea L. subsp. europaea  var. sylvestris (Mill) Lehr, en français oléastre ou olivier sauvage (en occitan, on parle d'« ulivastre », en anglais de Wild olive), est la variété sauvage de l'olivier.
-L'oléastre serait un arbre originaire de l'Afrique du Nord où il pousse à l'état naturel mais il se trouverait plus au nord, dans la zone méditerranéenne européenne. En 2012, il est établi que son nom scientifique est Olea europaea subsp. europaea var. sylvestris[1]. Il est considéré comme une ressource génétique importante.
+L'oléastre serait un arbre originaire de l'Afrique du Nord où il pousse à l'état naturel mais il se trouverait plus au nord, dans la zone méditerranéenne européenne. En 2012, il est établi que son nom scientifique est Olea europaea subsp. europaea var. sylvestris. Il est considéré comme une ressource génétique importante.
 C'est un arbre thermophile qui résiste bien à la sécheresse.
-Les spécialistes sont d'accord sur le fait qu'il y a des populations différentes d'oléastres à l'ouest et à l'est du bassin méditerranéen[2].
+Les spécialistes sont d'accord sur le fait qu'il y a des populations différentes d'oléastres à l'ouest et à l'est du bassin méditerranéen.
 </t>
         </is>
       </c>
@@ -515,7 +527,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Olea oleaster Hoffmanns (1809).</t>
         </is>
@@ -545,7 +559,9 @@
           <t>Description botanique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pour le botaniste, le terme « oléastre » désigne l'olivier non-cultivé, avec de petits fruits et un aspect buissonnant.
 L'identification variétale est basée sur l'appareil végétatif et sur l'appareil reproducteur :
@@ -581,9 +597,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les techniques de la biologie moléculaire ont beaucoup apporté au positionnement exact de l'olivier sauvage et de l'olivier cultivé, depuis le siècle précédent. La présence de l'oléastre avait été validée par un travail de terrain au Maroc, publié en 1966[3], et par ceux qui ont étudié la flore de l'Afrique du Nord[4]. Récemment, une thèse a été préparée et soutenue sur le sujet qui a fait appel aux techniques de la biologie moléculaire[5]. La dénomination scientifique exacte actuelle est Olea europaea subsp. europaea var. sylvestris (Mill.) Lehr[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les techniques de la biologie moléculaire ont beaucoup apporté au positionnement exact de l'olivier sauvage et de l'olivier cultivé, depuis le siècle précédent. La présence de l'oléastre avait été validée par un travail de terrain au Maroc, publié en 1966, et par ceux qui ont étudié la flore de l'Afrique du Nord. Récemment, une thèse a été préparée et soutenue sur le sujet qui a fait appel aux techniques de la biologie moléculaire. La dénomination scientifique exacte actuelle est Olea europaea subsp. europaea var. sylvestris (Mill.) Lehr.
 </t>
         </is>
       </c>
@@ -614,16 +632,16 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Généralités
-L'oléastre était considéré jusqu'en 1955 comme un taxon sans intérêt pour les chercheurs.
+          <t>Généralités</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'oléastre était considéré jusqu'en 1955 comme un taxon sans intérêt pour les chercheurs.
 Les travaux de l'équipe du Centre de Bio-archéologie et d'Écologie de l'Institut de botanique de Montpellier (CNRS et Université Montpellier 2) ont montré que lors des dernières glaciations les oléastres ont reculé vers le sud, à l'est et à l'ouest du bassin méditerranéen.
-L'étude de noyaux de fruits d'oléastres et de restes de bois carbonisés a mis en évidence une protoculture et une exploitation de l'olivier avant l'antiquité, et plus précisément avant l'âge du bronze (3500 av. J.-C.)[7]
+L'étude de noyaux de fruits d'oléastres et de restes de bois carbonisés a mis en évidence une protoculture et une exploitation de l'olivier avant l'antiquité, et plus précisément avant l'âge du bronze (3500 av. J.-C.)
 L'oléastre, selon Jean-Frédéric Terral (1996), est un taxon domestiqué, « son origine et sa culture émergent cinq millénaires avant notre ère, avec des nouvelles variétés, des savoirs et des techniques provenant de nombreuses contrées de la Méditerranée. » « Ces résultats ne remettent pas en cause l'importance de l'influence des Phéniciens, des Étrusques, des Grecs et des Romains sur le rayonnement de l'olivier à travers les âges et le Bassin méditerranéen. »
-Émergence au Néolithique
-Selon les travaux des « archéobotanistes et des paléoécologues [qui] ont reconstitué les fluctuations géographiques des végétations passées, avant et après les glaciations, [...] l'oléastre était présent à l'est et à l'ouest du Bassin méditerranéen bien avant les glaciations[8]. »
-Ce sont les oiseaux qui ont certainement joué un rôle dans la dispersion des fruits d'oléastre. « L'oléastre s'est propagé le long des zones côtières tout autour de la Méditerranée dès 8 000 ans AEC »[9].
-Culture
-L'oléastre a été l'objet d'une protoculture et d'une exploitation de l'olive antérieure à l'Antiquité. Ainsi se sont développées, peu à peu, des variétés cultivées. C'est l'avis du Centre de Bio-Archéologie et d'Écologie de Montpellier (CBAEM, J.-F. Terral et al., 2012). Une exploitation de l'olivier a eu lieu pour son bois utilisé comme combustible puis pour son huile. L'abondance des pollens d'olivier dans les sédiments montre l'avènement d'une oléiculture intensive (site archéologiques en Espagne, Italie et France). Les études des bois carbonisés et des noyaux montrent l'apparition de cultivars à l'âge du bronze, période clé dans l'histoire de l'olivier. Le CBAEM va approfondir l'histoire de l'oléastre au Maghreb.
 </t>
         </is>
       </c>
@@ -649,15 +667,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>En région méditerranéenne nord</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Agriculture
-Pour l'agriculteur, le terme oléastre désigne tout olivier dont l'apparence s'éloigne de celle des variétés et des cultivars d'olivier connus et productifs : feuilles petites et arrondies, rameaux raides, courts et épineux, aspect buissonnant[1].
-Biologie
-Pour le biologiste, il désigne un arbre appartenant à une population sauvage vraie, c'est-à-dire une lignée Olea europaea qui n'aurait jamais bénéficié d'intervention de l'homme pour se propager.
+          <t>Émergence au Néolithique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon les travaux des « archéobotanistes et des paléoécologues [qui] ont reconstitué les fluctuations géographiques des végétations passées, avant et après les glaciations, [...] l'oléastre était présent à l'est et à l'ouest du Bassin méditerranéen bien avant les glaciations. »
+Ce sont les oiseaux qui ont certainement joué un rôle dans la dispersion des fruits d'oléastre. « L'oléastre s'est propagé le long des zones côtières tout autour de la Méditerranée dès 8 000 ans AEC ».
 </t>
         </is>
       </c>
@@ -688,112 +710,124 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Un olivier abandonné peut parfois donner l'illusion d'un olivier sauvage et un oléastre taillé change quelque peu d'aspect. Ces problèmes remontent à l'antiquité et les études de biologie moléculaire ont partiellement résolu l'énigme.
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'oléastre a été l'objet d'une protoculture et d'une exploitation de l'olive antérieure à l'Antiquité. Ainsi se sont développées, peu à peu, des variétés cultivées. C'est l'avis du Centre de Bio-Archéologie et d'Écologie de Montpellier (CBAEM, J.-F. Terral et al., 2012). Une exploitation de l'olivier a eu lieu pour son bois utilisé comme combustible puis pour son huile. L'abondance des pollens d'olivier dans les sédiments montre l'avènement d'une oléiculture intensive (site archéologiques en Espagne, Italie et France). Les études des bois carbonisés et des noyaux montrent l'apparition de cultivars à l'âge du bronze, période clé dans l'histoire de l'olivier. Le CBAEM va approfondir l'histoire de l'oléastre au Maghreb.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Olea_europaea_subsp._europaea_var._sylvestris</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_europaea_subsp._europaea_var._sylvestris</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>En région méditerranéenne nord</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour l'agriculteur, le terme oléastre désigne tout olivier dont l'apparence s'éloigne de celle des variétés et des cultivars d'olivier connus et productifs : feuilles petites et arrondies, rameaux raides, courts et épineux, aspect buissonnant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Olea_europaea_subsp._europaea_var._sylvestris</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_europaea_subsp._europaea_var._sylvestris</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>En région méditerranéenne nord</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour le biologiste, il désigne un arbre appartenant à une population sauvage vraie, c'est-à-dire une lignée Olea europaea qui n'aurait jamais bénéficié d'intervention de l'homme pour se propager.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Olea_europaea_subsp._europaea_var._sylvestris</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_europaea_subsp._europaea_var._sylvestris</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Un olivier abandonné peut parfois donner l'illusion d'un olivier sauvage et un oléastre taillé change quelque peu d'aspect. Ces problèmes remontent à l'antiquité et les études de biologie moléculaire ont partiellement résolu l'énigme.
 Il existe trois cas possibles d'oliviers à l'état sauvage :
 l'olivier sauvage qui n'a aucun parent domestiqué parmi ses ancêtres ; c'est l'oléastre vrai ;
 l'olivier sauvage descendant d'oliviers cultivés ; c'est l'olivier féral ;
-l'olivier cultivé qui a été abandonné ; seul son aspect peut évoquer l'oléastre. Il n'existe que grâce à l'intervention de l'homme, puisque c'est un olivier appartenant à une variété cultivée ou ayant été cultivée.
-Oléastre
-Les oliviers cultivés et les oliviers sauvages étant interféconds, tous les intermédiaires peuvent se rencontrer. Cela explique qu'on trouve des populations férales qui se sont formées à partir de noyaux d’oliviers cultivés et qui ne peuvent être discernées des populations d'oléastres vrais que par la biologie moléculaire et par l'archéobiologie.
-Les deux techniques [10] aboutissent au même résultat. L'olivier et ses variétés cultivées (cultivars) descendent bien de l'oléastre et de sa culture depuis l'époque néolithique.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Olea_europaea_subsp._europaea_var._sylvestris</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Olea_europaea_subsp._europaea_var._sylvestris</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Propagation</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Propagation des fruits
-Le mode de propagation-perpétuation naturel de l’olivier repose sur l’intérêt des oiseaux pour son fruit, l’olive. En avalant les olives, les oiseaux permettent à la graine de germer éventuellement ailleurs qu’au lieu d’ingestion, après passage dans le tube digestif et restitution par les fientes. La particularité réside dans le fait que l’olivier actuel joue sur deux tableaux, en utilisant pour se propager à la fois le concours des espèces non humaines (notamment les oiseaux (zoochorie)) et celui de l’homme (anthropochorie). Passant dans le tube digestif des oiseaux (Étourneau sansonnet ou Pie, entre autres), le noyau d'olivier-oléastre est débarrassé de la pulpe et de l'huile, l'endocarpe ligneux et dur est attaqué, permettant à l'amandon de germer et au germe de sortir de son enveloppe, donnant un jeune plant[11].
-Propagation des gamètes
-L’olivier-oléastre possède la capacité à diffuser son pollen (gamètes mâles) sur de longues distances (par anémogamie), comme l'olivier cultivé, du reste.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Olea_europaea_subsp._europaea_var._sylvestris</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Olea_europaea_subsp._europaea_var._sylvestris</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Évolution de l'espèce</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La difficulté que l’homme rencontre pour faire germer des noyaux et la diffusion de pollen par les vents font que, jusqu’à aujourd’hui, les humains n’ont que très peu réussi à planifier la sélection de l’espèce Olea europaea à leur avantage ; ils ont dû se contenter de choisir parmi les variétés que le hasard mettait à leur disposition. Pourtant, des variétés nouvelles ont récemment vu le jour[12].
-L’olivier conserve ainsi une part d’indépendance à l’égard de l’espèce humaine, mais profite toutefois de ses sensibilités pour coloniser les espaces cultivés, et, à l’occasion, les espaces incultes attenants, par l'intermédiaire des oiseaux ou d’autres animaux. Il constitue de la sorte des populations férales, qui, à leur tour, peuvent fournir aux humains des variétés nouvelles.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Olea_europaea_subsp._europaea_var._sylvestris</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Olea_europaea_subsp._europaea_var._sylvestris</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Au sud de la Méditerranée</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les recherches faites sur l'olivier par le Professeur Bervillé (INRA) et son équipe sur la génétique de l'olivier ont permis de localiser avec précision plusieurs populations anciennes d'où proviendraient les populations actuelles de l'Europe du Sud. L'arbre est connu depuis la plus haute antiquité.
-</t>
+l'olivier cultivé qui a été abandonné ; seul son aspect peut évoquer l'oléastre. Il n'existe que grâce à l'intervention de l'homme, puisque c'est un olivier appartenant à une variété cultivée ou ayant été cultivée.</t>
         </is>
       </c>
     </row>
@@ -818,12 +852,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Utilisation</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'oléastre sert de porte-greffe à de nombreux cultivars d'oliviers cultivés. Cette pratique facilite l'implantation de variétés fragiles qui ne s'adapteraient pas au sol ou sensibles à certaines maladies d'origine mycologique. La pratique de la greffe sur des rejets de vieilles souches d'oléastres offre aussi l'avantage d'utiliser un fort enracinement existant et adapté au terroir.
+          <t>Oléastre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les oliviers cultivés et les oliviers sauvages étant interféconds, tous les intermédiaires peuvent se rencontrer. Cela explique qu'on trouve des populations férales qui se sont formées à partir de noyaux d’oliviers cultivés et qui ne peuvent être discernées des populations d'oléastres vrais que par la biologie moléculaire et par l'archéobiologie.
+Les deux techniques  aboutissent au même résultat. L'olivier et ses variétés cultivées (cultivars) descendent bien de l'oléastre et de sa culture depuis l'époque néolithique.
 </t>
         </is>
       </c>
@@ -849,10 +890,186 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>Propagation</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Propagation des fruits</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mode de propagation-perpétuation naturel de l’olivier repose sur l’intérêt des oiseaux pour son fruit, l’olive. En avalant les olives, les oiseaux permettent à la graine de germer éventuellement ailleurs qu’au lieu d’ingestion, après passage dans le tube digestif et restitution par les fientes. La particularité réside dans le fait que l’olivier actuel joue sur deux tableaux, en utilisant pour se propager à la fois le concours des espèces non humaines (notamment les oiseaux (zoochorie)) et celui de l’homme (anthropochorie). Passant dans le tube digestif des oiseaux (Étourneau sansonnet ou Pie, entre autres), le noyau d'olivier-oléastre est débarrassé de la pulpe et de l'huile, l'endocarpe ligneux et dur est attaqué, permettant à l'amandon de germer et au germe de sortir de son enveloppe, donnant un jeune plant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Olea_europaea_subsp._europaea_var._sylvestris</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_europaea_subsp._europaea_var._sylvestris</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Propagation</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Propagation des gamètes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’olivier-oléastre possède la capacité à diffuser son pollen (gamètes mâles) sur de longues distances (par anémogamie), comme l'olivier cultivé, du reste.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Olea_europaea_subsp._europaea_var._sylvestris</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_europaea_subsp._europaea_var._sylvestris</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Évolution de l'espèce</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La difficulté que l’homme rencontre pour faire germer des noyaux et la diffusion de pollen par les vents font que, jusqu’à aujourd’hui, les humains n’ont que très peu réussi à planifier la sélection de l’espèce Olea europaea à leur avantage ; ils ont dû se contenter de choisir parmi les variétés que le hasard mettait à leur disposition. Pourtant, des variétés nouvelles ont récemment vu le jour.
+L’olivier conserve ainsi une part d’indépendance à l’égard de l’espèce humaine, mais profite toutefois de ses sensibilités pour coloniser les espaces cultivés, et, à l’occasion, les espaces incultes attenants, par l'intermédiaire des oiseaux ou d’autres animaux. Il constitue de la sorte des populations férales, qui, à leur tour, peuvent fournir aux humains des variétés nouvelles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Olea_europaea_subsp._europaea_var._sylvestris</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_europaea_subsp._europaea_var._sylvestris</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Au sud de la Méditerranée</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les recherches faites sur l'olivier par le Professeur Bervillé (INRA) et son équipe sur la génétique de l'olivier ont permis de localiser avec précision plusieurs populations anciennes d'où proviendraient les populations actuelles de l'Europe du Sud. L'arbre est connu depuis la plus haute antiquité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Olea_europaea_subsp._europaea_var._sylvestris</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_europaea_subsp._europaea_var._sylvestris</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'oléastre sert de porte-greffe à de nombreux cultivars d'oliviers cultivés. Cette pratique facilite l'implantation de variétés fragiles qui ne s'adapteraient pas au sol ou sensibles à certaines maladies d'origine mycologique. La pratique de la greffe sur des rejets de vieilles souches d'oléastres offre aussi l'avantage d'utiliser un fort enracinement existant et adapté au terroir.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Olea_europaea_subsp._europaea_var._sylvestris</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_europaea_subsp._europaea_var._sylvestris</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
